--- a/data/trans_dic/P78_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Habitat-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,18</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,95</t>
+          <t>0,33; 5,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,15</t>
+          <t>0,33; 3,77</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,68</t>
+          <t>2,14; 5,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,16</t>
+          <t>1,54; 4,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,28</t>
+          <t>2,09; 4,32</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,44</t>
+          <t>2,0; 4,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,14</t>
+          <t>2,35; 4,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,92</t>
+          <t>2,42; 3,99</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,4</t>
+          <t>1,92; 5,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,57</t>
+          <t>1,27; 3,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,99</t>
+          <t>1,83; 4,01</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,45</t>
+          <t>2,11; 4,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,17</t>
+          <t>2,09; 4,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,04</t>
+          <t>2,41; 3,97</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,11</t>
+          <t>2,56; 3,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,32</t>
+          <t>2,29; 3,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,41</t>
+          <t>2,56; 3,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P78_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,77</t>
+          <t>0,67; 6,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,77</t>
+          <t>0,68; 4,53</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 5,93</t>
+          <t>2,73; 6,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,14</t>
+          <t>2,06; 4,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,32</t>
+          <t>2,63; 5,12</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,61</t>
+          <t>2,72; 5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,07</t>
+          <t>3,46; 6,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 3,99</t>
+          <t>3,35; 5,2</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,75%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,51</t>
+          <t>2,63; 6,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,73</t>
+          <t>2,03; 5,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,01</t>
+          <t>2,76; 5,23</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>4,44%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,59</t>
+          <t>3,51; 6,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,26</t>
+          <t>3,06; 5,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,97</t>
+          <t>3,55; 5,38</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,96</t>
+          <t>3,47; 5,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,4</t>
+          <t>3,25; 4,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,44</t>
+          <t>3,5; 4,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>2,0; 4,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,06</t>
+          <t>1,78; 4,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,53</t>
+          <t>2,13; 3,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,52</t>
+          <t>1,55; 4,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,8</t>
+          <t>3,36; 5,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,12</t>
+          <t>2,47; 4,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,44%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,6</t>
+          <t>2,46; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,04</t>
+          <t>1,48; 5,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,2</t>
+          <t>2,25; 4,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,42</t>
+          <t>3,23; 5,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,11</t>
+          <t>2,73; 4,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,23</t>
+          <t>3,22; 4,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,29</t>
+          <t>2,77; 4,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,45</t>
+          <t>2,79; 4,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,38</t>
+          <t>3,06; 4,1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,19%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 5,14</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 4,53</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 4,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
